--- a/Prep/migbyage.xlsx
+++ b/Prep/migbyage.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>0-4</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 100 лет и более</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>Rate</t>
   </si>
 </sst>
 </file>
@@ -93,10 +99,10 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;_р_._-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0&quot;р.&quot;_-;\-* #,##0&quot;р.&quot;_-;_-* &quot;-&quot;&quot;р.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;_р_._-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0&quot;р.&quot;_-;\-* #,##0&quot;р.&quot;_-;_-* &quot;-&quot;&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -338,18 +344,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <protection locked="0"/>
@@ -364,7 +370,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -372,7 +378,10 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -711,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,170 +733,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B2" s="3">
         <v>6.214805062685138E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="3">
         <v>7.9190728384349166E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>5.7380589050796404E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>0.11306763212750466</v>
+        <v>5.7380589050796404E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>0.11327209439174969</v>
+        <v>0.11306763212750466</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>8.5478192354108695E-2</v>
+        <v>0.11327209439174969</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>0.10026231012437289</v>
+        <v>8.5478192354108695E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>9.8040154393943924E-2</v>
+        <v>0.10026231012437289</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>7.2313315978975293E-2</v>
+        <v>9.8040154393943924E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>5.4471240637124364E-2</v>
+        <v>7.2313315978975293E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>4.1966627768967618E-2</v>
+        <v>5.4471240637124364E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>3.6932866560944716E-2</v>
+        <v>4.1966627768967618E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>3.5701106090980719E-2</v>
+        <v>3.6932866560944716E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2.3776966577900124E-2</v>
+        <v>3.5701106090980719E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>1.4068001156957203E-2</v>
+        <v>2.3776966577900124E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>4.9853884284332206E-3</v>
+        <v>1.4068001156957203E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>4.4946789942451352E-3</v>
+        <v>4.9853884284332206E-3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>1.7743335028874061E-3</v>
+        <v>4.4946789942451352E-3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3">
-        <v>5.5304549036035231E-4</v>
+        <v>1.7743335028874061E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>1.0871408196443353E-4</v>
+        <v>5.5304549036035231E-4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1.0871408196443353E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="3">
         <v>1.3963276582587794E-5</v>
       </c>
     </row>
